--- a/plantillas/Op1 - Reporte.xlsx
+++ b/plantillas/Op1 - Reporte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruth\Documents\GitHub\Operativo-1 - copia\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B960AFAA-8EFF-4721-A8F1-505A2D0C8848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27415B77-BE16-49B7-BAC2-BEB1CDED85DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2330,23 +2330,6 @@
   </cellStyles>
   <dxfs count="88">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -2391,6 +2374,23 @@
         <horizontal style="thin">
           <color theme="0" tint="-0.14999847407452621"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -4123,9 +4123,9 @@
     <tableColumn id="58" xr3:uid="{00000000-0010-0000-0100-00003A000000}" name="Acta de incidencias de local de evaluación" dataDxfId="6"/>
     <tableColumn id="59" xr3:uid="{00000000-0010-0000-0100-00003B000000}" name="Acta de incidencias de local de evaluación[p]" dataDxfId="5" dataCellStyle="Porcentaje"/>
     <tableColumn id="60" xr3:uid="{00000000-0010-0000-0100-00003C000000}" name="Acta fiscal" dataDxfId="4"/>
-    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0100-00003D000000}" name="Acta fiscal[p]" dataDxfId="0" dataCellStyle="Porcentaje"/>
-    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0100-00003E000000}" name="Sobre" dataDxfId="3"/>
-    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0100-00003F000000}" name="Sobre[p]" dataDxfId="2" dataCellStyle="Porcentaje"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0100-00003D000000}" name="Acta fiscal[p]" dataDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0100-00003E000000}" name="Sobre" dataDxfId="2"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0100-00003F000000}" name="Sobre[p]" dataDxfId="1" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="OP1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -44252,7 +44252,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="U2:U51">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"ERR"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44268,9 +44268,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BS158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BQ5" sqref="BQ5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ162" sqref="AJ162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -50481,7 +50481,7 @@
         <v>35</v>
       </c>
       <c r="AI44" s="34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ44" s="33">
         <f t="shared" si="0"/>
@@ -50508,7 +50508,7 @@
       </c>
       <c r="AP44" s="32">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ44" s="32">
         <v>30</v>
@@ -60841,7 +60841,7 @@
         <v>32</v>
       </c>
       <c r="AI118" s="34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ118" s="33">
         <f t="shared" si="0"/>
@@ -60868,7 +60868,7 @@
       </c>
       <c r="AP118" s="32">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ118" s="32">
         <v>30</v>
@@ -61681,7 +61681,7 @@
         <v>42</v>
       </c>
       <c r="AI124" s="34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ124" s="33">
         <f t="shared" si="0"/>
@@ -61708,7 +61708,7 @@
       </c>
       <c r="AP124" s="32">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ124" s="32">
         <v>30</v>
@@ -65741,7 +65741,7 @@
         <v>22</v>
       </c>
       <c r="AI153" s="34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ153" s="33">
         <f t="shared" si="0"/>
@@ -65768,7 +65768,7 @@
       </c>
       <c r="AP153" s="32">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ153" s="32">
         <v>30</v>

--- a/plantillas/Op1 - Reporte.xlsx
+++ b/plantillas/Op1 - Reporte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruth\Documents\GitHub\Operativo-1 - copia\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27415B77-BE16-49B7-BAC2-BEB1CDED85DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6AB3D1-119B-4078-AF75-9D039BFC60FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERSONAL" sheetId="6" r:id="rId1"/>
@@ -19257,9 +19257,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF06A71F-AC7C-4552-80B2-45E5CA6F91C8}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -19342,8 +19342,12 @@
       <c r="B2" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="47"/>
+      <c r="C2" s="47">
+        <v>11</v>
+      </c>
+      <c r="D2" s="41">
+        <v>2</v>
+      </c>
       <c r="E2" s="73">
         <v>4</v>
       </c>
@@ -19371,8 +19375,12 @@
       <c r="B3" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="48"/>
+      <c r="C3" s="48">
+        <v>7</v>
+      </c>
+      <c r="D3" s="43">
+        <v>2</v>
+      </c>
       <c r="E3" s="74">
         <v>6</v>
       </c>
@@ -19400,8 +19408,12 @@
       <c r="B4" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="47"/>
+      <c r="C4" s="47">
+        <v>17</v>
+      </c>
+      <c r="D4" s="41">
+        <v>4</v>
+      </c>
       <c r="E4" s="73">
         <v>8</v>
       </c>
@@ -19429,8 +19441,12 @@
       <c r="B5" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="48"/>
+      <c r="C5" s="48">
+        <v>26</v>
+      </c>
+      <c r="D5" s="43">
+        <v>6</v>
+      </c>
       <c r="E5" s="74">
         <v>8</v>
       </c>
@@ -19458,8 +19474,12 @@
       <c r="B6" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="47"/>
+      <c r="C6" s="47">
+        <v>7</v>
+      </c>
+      <c r="D6" s="41">
+        <v>2</v>
+      </c>
       <c r="E6" s="73">
         <v>4</v>
       </c>
@@ -19487,8 +19507,12 @@
       <c r="B7" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="48"/>
+      <c r="C7" s="48">
+        <v>10</v>
+      </c>
+      <c r="D7" s="43">
+        <v>2</v>
+      </c>
       <c r="E7" s="74">
         <v>4</v>
       </c>
@@ -19516,8 +19540,12 @@
       <c r="B8" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="47"/>
+      <c r="C8" s="47">
+        <v>10</v>
+      </c>
+      <c r="D8" s="41">
+        <v>2</v>
+      </c>
       <c r="E8" s="73">
         <v>4</v>
       </c>
@@ -19545,8 +19573,12 @@
       <c r="B9" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="48"/>
+      <c r="C9" s="48">
+        <v>22</v>
+      </c>
+      <c r="D9" s="43">
+        <v>6</v>
+      </c>
       <c r="E9" s="74">
         <v>12</v>
       </c>
@@ -19574,8 +19606,12 @@
       <c r="B10" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="47"/>
+      <c r="C10" s="47">
+        <v>3</v>
+      </c>
+      <c r="D10" s="41">
+        <v>1</v>
+      </c>
       <c r="E10" s="73">
         <v>2</v>
       </c>
@@ -19603,8 +19639,12 @@
       <c r="B11" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="48"/>
+      <c r="C11" s="48">
+        <v>20</v>
+      </c>
+      <c r="D11" s="43">
+        <v>4</v>
+      </c>
       <c r="E11" s="74">
         <v>6</v>
       </c>
@@ -19632,8 +19672,12 @@
       <c r="B12" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="47"/>
+      <c r="C12" s="47">
+        <v>7</v>
+      </c>
+      <c r="D12" s="41">
+        <v>2</v>
+      </c>
       <c r="E12" s="73">
         <v>4</v>
       </c>
@@ -19661,8 +19705,12 @@
       <c r="B13" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="48"/>
+      <c r="C13" s="48">
+        <v>22</v>
+      </c>
+      <c r="D13" s="43">
+        <v>5</v>
+      </c>
       <c r="E13" s="74">
         <v>10</v>
       </c>
@@ -19690,8 +19738,12 @@
       <c r="B14" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="47"/>
+      <c r="C14" s="47">
+        <v>12</v>
+      </c>
+      <c r="D14" s="41">
+        <v>3</v>
+      </c>
       <c r="E14" s="73">
         <v>6</v>
       </c>
@@ -19719,8 +19771,12 @@
       <c r="B15" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="48"/>
+      <c r="C15" s="48">
+        <v>12</v>
+      </c>
+      <c r="D15" s="43">
+        <v>3</v>
+      </c>
       <c r="E15" s="74">
         <v>6</v>
       </c>
@@ -19748,8 +19804,12 @@
       <c r="B16" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="47"/>
+      <c r="C16" s="47">
+        <v>11</v>
+      </c>
+      <c r="D16" s="41">
+        <v>3</v>
+      </c>
       <c r="E16" s="73">
         <v>6</v>
       </c>
@@ -19777,8 +19837,12 @@
       <c r="B17" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="48"/>
+      <c r="C17" s="48">
+        <v>30</v>
+      </c>
+      <c r="D17" s="43">
+        <v>8</v>
+      </c>
       <c r="E17" s="74">
         <v>8</v>
       </c>
@@ -19806,8 +19870,12 @@
       <c r="B18" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="47"/>
+      <c r="C18" s="47">
+        <v>5</v>
+      </c>
+      <c r="D18" s="41">
+        <v>1</v>
+      </c>
       <c r="E18" s="73">
         <v>2</v>
       </c>
@@ -19835,8 +19903,12 @@
       <c r="B19" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="48"/>
+      <c r="C19" s="48">
+        <v>8</v>
+      </c>
+      <c r="D19" s="43">
+        <v>2</v>
+      </c>
       <c r="E19" s="74">
         <v>4</v>
       </c>
@@ -19864,8 +19936,12 @@
       <c r="B20" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="47"/>
+      <c r="C20" s="47">
+        <v>11</v>
+      </c>
+      <c r="D20" s="41">
+        <v>3</v>
+      </c>
       <c r="E20" s="73">
         <v>6</v>
       </c>
@@ -19893,8 +19969,12 @@
       <c r="B21" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="48"/>
+      <c r="C21" s="48">
+        <v>2</v>
+      </c>
+      <c r="D21" s="43">
+        <v>1</v>
+      </c>
       <c r="E21" s="74">
         <v>2</v>
       </c>
@@ -19922,8 +20002,12 @@
       <c r="B22" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="47"/>
+      <c r="C22" s="47">
+        <v>26</v>
+      </c>
+      <c r="D22" s="41">
+        <v>5</v>
+      </c>
       <c r="E22" s="73">
         <v>8</v>
       </c>
@@ -19951,8 +20035,12 @@
       <c r="B23" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="48"/>
+      <c r="C23" s="48">
+        <v>7</v>
+      </c>
+      <c r="D23" s="43">
+        <v>2</v>
+      </c>
       <c r="E23" s="74">
         <v>4</v>
       </c>
@@ -19980,8 +20068,12 @@
       <c r="B24" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="47"/>
+      <c r="C24" s="47">
+        <v>11</v>
+      </c>
+      <c r="D24" s="41">
+        <v>2</v>
+      </c>
       <c r="E24" s="73">
         <v>4</v>
       </c>
@@ -20009,8 +20101,12 @@
       <c r="B25" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="48"/>
+      <c r="C25" s="48">
+        <v>16</v>
+      </c>
+      <c r="D25" s="43">
+        <v>3</v>
+      </c>
       <c r="E25" s="74">
         <v>6</v>
       </c>
@@ -20038,8 +20134,12 @@
       <c r="B26" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="47"/>
+      <c r="C26" s="47">
+        <v>40</v>
+      </c>
+      <c r="D26" s="41">
+        <v>9</v>
+      </c>
       <c r="E26" s="73">
         <v>14</v>
       </c>
@@ -20067,8 +20167,12 @@
       <c r="B27" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="48"/>
+      <c r="C27" s="48">
+        <v>7</v>
+      </c>
+      <c r="D27" s="43">
+        <v>2</v>
+      </c>
       <c r="E27" s="74">
         <v>4</v>
       </c>
@@ -20096,8 +20200,12 @@
       <c r="B28" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="47"/>
+      <c r="C28" s="47">
+        <v>5</v>
+      </c>
+      <c r="D28" s="41">
+        <v>2</v>
+      </c>
       <c r="E28" s="73">
         <v>4</v>
       </c>
@@ -20125,8 +20233,12 @@
       <c r="B29" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="48"/>
+      <c r="C29" s="48">
+        <v>29</v>
+      </c>
+      <c r="D29" s="43">
+        <v>7</v>
+      </c>
       <c r="E29" s="74">
         <v>12</v>
       </c>
@@ -20154,8 +20266,12 @@
       <c r="B30" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="47"/>
+      <c r="C30" s="47">
+        <v>12</v>
+      </c>
+      <c r="D30" s="41">
+        <v>3</v>
+      </c>
       <c r="E30" s="73">
         <v>12</v>
       </c>
@@ -20183,8 +20299,12 @@
       <c r="B31" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="48"/>
+      <c r="C31" s="48">
+        <v>5</v>
+      </c>
+      <c r="D31" s="43">
+        <v>1</v>
+      </c>
       <c r="E31" s="74">
         <v>8</v>
       </c>
@@ -20212,8 +20332,12 @@
       <c r="B32" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="47"/>
+      <c r="C32" s="47">
+        <v>17</v>
+      </c>
+      <c r="D32" s="41">
+        <v>3</v>
+      </c>
       <c r="E32" s="73">
         <v>6</v>
       </c>
@@ -20241,8 +20365,12 @@
       <c r="B33" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="48"/>
+      <c r="C33" s="48">
+        <v>8</v>
+      </c>
+      <c r="D33" s="43">
+        <v>1</v>
+      </c>
       <c r="E33" s="74">
         <v>8</v>
       </c>
@@ -20270,8 +20398,12 @@
       <c r="B34" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="47"/>
+      <c r="C34" s="47">
+        <v>23</v>
+      </c>
+      <c r="D34" s="41">
+        <v>5</v>
+      </c>
       <c r="E34" s="73">
         <v>10</v>
       </c>
@@ -20299,8 +20431,12 @@
       <c r="B35" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="48"/>
+      <c r="C35" s="48">
+        <v>3</v>
+      </c>
+      <c r="D35" s="43">
+        <v>1</v>
+      </c>
       <c r="E35" s="74">
         <v>6</v>
       </c>
@@ -20328,8 +20464,12 @@
       <c r="B36" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="47"/>
+      <c r="C36" s="47">
+        <v>18</v>
+      </c>
+      <c r="D36" s="41">
+        <v>5</v>
+      </c>
       <c r="E36" s="73">
         <v>8</v>
       </c>
@@ -20357,8 +20497,12 @@
       <c r="B37" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="48"/>
+      <c r="C37" s="48">
+        <v>21</v>
+      </c>
+      <c r="D37" s="43">
+        <v>6</v>
+      </c>
       <c r="E37" s="74">
         <v>8</v>
       </c>
@@ -20386,8 +20530,12 @@
       <c r="B38" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="47"/>
+      <c r="C38" s="47">
+        <v>7</v>
+      </c>
+      <c r="D38" s="41">
+        <v>2</v>
+      </c>
       <c r="E38" s="73">
         <v>4</v>
       </c>
@@ -20415,8 +20563,12 @@
       <c r="B39" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="48"/>
+      <c r="C39" s="48">
+        <v>6</v>
+      </c>
+      <c r="D39" s="43">
+        <v>1</v>
+      </c>
       <c r="E39" s="74">
         <v>2</v>
       </c>
@@ -20444,8 +20596,12 @@
       <c r="B40" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="47"/>
+      <c r="C40" s="47">
+        <v>7</v>
+      </c>
+      <c r="D40" s="41">
+        <v>1</v>
+      </c>
       <c r="E40" s="73">
         <v>2</v>
       </c>
@@ -20473,8 +20629,12 @@
       <c r="B41" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="48"/>
+      <c r="C41" s="48">
+        <v>7</v>
+      </c>
+      <c r="D41" s="43">
+        <v>1</v>
+      </c>
       <c r="E41" s="74">
         <v>2</v>
       </c>
@@ -20502,8 +20662,12 @@
       <c r="B42" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="47"/>
+      <c r="C42" s="47">
+        <v>28</v>
+      </c>
+      <c r="D42" s="41">
+        <v>6</v>
+      </c>
       <c r="E42" s="73">
         <v>10</v>
       </c>
@@ -20531,8 +20695,12 @@
       <c r="B43" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="48"/>
+      <c r="C43" s="48">
+        <v>9</v>
+      </c>
+      <c r="D43" s="43">
+        <v>2</v>
+      </c>
       <c r="E43" s="74">
         <v>6</v>
       </c>
@@ -20560,8 +20728,12 @@
       <c r="B44" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="47"/>
+      <c r="C44" s="47">
+        <v>0</v>
+      </c>
+      <c r="D44" s="41">
+        <v>0</v>
+      </c>
       <c r="E44" s="73">
         <v>2</v>
       </c>
@@ -20589,8 +20761,12 @@
       <c r="B45" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="48"/>
+      <c r="C45" s="48">
+        <v>21</v>
+      </c>
+      <c r="D45" s="43">
+        <v>6</v>
+      </c>
       <c r="E45" s="74">
         <v>10</v>
       </c>
@@ -20618,8 +20794,12 @@
       <c r="B46" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="47"/>
+      <c r="C46" s="47">
+        <v>16</v>
+      </c>
+      <c r="D46" s="41">
+        <v>4</v>
+      </c>
       <c r="E46" s="73">
         <v>10</v>
       </c>
@@ -20647,8 +20827,12 @@
       <c r="B47" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="48"/>
+      <c r="C47" s="48">
+        <v>11</v>
+      </c>
+      <c r="D47" s="43">
+        <v>2</v>
+      </c>
       <c r="E47" s="74">
         <v>4</v>
       </c>
@@ -20676,8 +20860,12 @@
       <c r="B48" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="47"/>
+      <c r="C48" s="47">
+        <v>13</v>
+      </c>
+      <c r="D48" s="41">
+        <v>3</v>
+      </c>
       <c r="E48" s="73">
         <v>10</v>
       </c>
@@ -20705,8 +20893,12 @@
       <c r="B49" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="43"/>
-      <c r="D49" s="48"/>
+      <c r="C49" s="48">
+        <v>6</v>
+      </c>
+      <c r="D49" s="43">
+        <v>1</v>
+      </c>
       <c r="E49" s="74">
         <v>4</v>
       </c>
@@ -20734,8 +20926,12 @@
       <c r="B50" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="41"/>
-      <c r="D50" s="47"/>
+      <c r="C50" s="47">
+        <v>13</v>
+      </c>
+      <c r="D50" s="41">
+        <v>3</v>
+      </c>
       <c r="E50" s="73">
         <v>6</v>
       </c>
@@ -20763,8 +20959,12 @@
       <c r="B51" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="43"/>
-      <c r="D51" s="48"/>
+      <c r="C51" s="48">
+        <v>15</v>
+      </c>
+      <c r="D51" s="43">
+        <v>5</v>
+      </c>
       <c r="E51" s="74">
         <v>8</v>
       </c>
@@ -44268,8 +44468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BS158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AJ162" sqref="AJ162"/>
     </sheetView>
   </sheetViews>

--- a/plantillas/Op1 - Reporte.xlsx
+++ b/plantillas/Op1 - Reporte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruth\Documents\GitHub\Operativo-1 - copia\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6AB3D1-119B-4078-AF75-9D039BFC60FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8BD600-F9BE-4D30-99EA-D8815E560A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19259,7 +19259,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -19376,10 +19376,10 @@
         <v>18</v>
       </c>
       <c r="C3" s="48">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="74">
         <v>6</v>
@@ -19574,10 +19574,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="48">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D9" s="43">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E9" s="74">
         <v>12</v>
@@ -19640,10 +19640,10 @@
         <v>26</v>
       </c>
       <c r="C11" s="48">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D11" s="43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="74">
         <v>6</v>
@@ -19706,10 +19706,10 @@
         <v>28</v>
       </c>
       <c r="C13" s="48">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D13" s="43">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13" s="74">
         <v>10</v>
@@ -19772,10 +19772,10 @@
         <v>30</v>
       </c>
       <c r="C15" s="48">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D15" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" s="74">
         <v>6</v>
@@ -19805,10 +19805,10 @@
         <v>31</v>
       </c>
       <c r="C16" s="47">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16" s="41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="73">
         <v>6</v>
@@ -20003,10 +20003,10 @@
         <v>37</v>
       </c>
       <c r="C22" s="47">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D22" s="41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" s="73">
         <v>8</v>
@@ -20102,10 +20102,10 @@
         <v>40</v>
       </c>
       <c r="C25" s="48">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D25" s="43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" s="74">
         <v>6</v>
@@ -20234,10 +20234,10 @@
         <v>44</v>
       </c>
       <c r="C29" s="48">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D29" s="43">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E29" s="74">
         <v>12</v>
@@ -20267,10 +20267,10 @@
         <v>45</v>
       </c>
       <c r="C30" s="47">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D30" s="41">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E30" s="73">
         <v>12</v>
@@ -20300,10 +20300,10 @@
         <v>46</v>
       </c>
       <c r="C31" s="48">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D31" s="43">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E31" s="74">
         <v>8</v>
@@ -20333,10 +20333,10 @@
         <v>47</v>
       </c>
       <c r="C32" s="47">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D32" s="41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E32" s="73">
         <v>6</v>
@@ -20366,10 +20366,10 @@
         <v>48</v>
       </c>
       <c r="C33" s="48">
+        <v>36</v>
+      </c>
+      <c r="D33" s="43">
         <v>8</v>
-      </c>
-      <c r="D33" s="43">
-        <v>1</v>
       </c>
       <c r="E33" s="74">
         <v>8</v>
@@ -20399,10 +20399,10 @@
         <v>49</v>
       </c>
       <c r="C34" s="47">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D34" s="41">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E34" s="73">
         <v>10</v>
@@ -20432,10 +20432,10 @@
         <v>50</v>
       </c>
       <c r="C35" s="48">
+        <v>11</v>
+      </c>
+      <c r="D35" s="43">
         <v>3</v>
-      </c>
-      <c r="D35" s="43">
-        <v>1</v>
       </c>
       <c r="E35" s="74">
         <v>6</v>
@@ -20498,10 +20498,10 @@
         <v>52</v>
       </c>
       <c r="C37" s="48">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D37" s="43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E37" s="74">
         <v>8</v>
@@ -20663,10 +20663,10 @@
         <v>57</v>
       </c>
       <c r="C42" s="47">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D42" s="41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E42" s="73">
         <v>10</v>
@@ -20696,10 +20696,10 @@
         <v>58</v>
       </c>
       <c r="C43" s="48">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D43" s="43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" s="74">
         <v>6</v>
@@ -20729,10 +20729,10 @@
         <v>59</v>
       </c>
       <c r="C44" s="47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D44" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="73">
         <v>2</v>
@@ -20762,10 +20762,10 @@
         <v>60</v>
       </c>
       <c r="C45" s="48">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D45" s="43">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E45" s="74">
         <v>10</v>
@@ -20795,10 +20795,10 @@
         <v>61</v>
       </c>
       <c r="C46" s="47">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D46" s="41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E46" s="73">
         <v>10</v>
@@ -20861,10 +20861,10 @@
         <v>63</v>
       </c>
       <c r="C48" s="47">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D48" s="41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E48" s="73">
         <v>10</v>
@@ -20894,10 +20894,10 @@
         <v>64</v>
       </c>
       <c r="C49" s="48">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D49" s="43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E49" s="74">
         <v>4</v>
@@ -20927,7 +20927,7 @@
         <v>65</v>
       </c>
       <c r="C50" s="47">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" s="41">
         <v>3</v>
@@ -20960,10 +20960,10 @@
         <v>66</v>
       </c>
       <c r="C51" s="48">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D51" s="43">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E51" s="74">
         <v>8</v>

--- a/plantillas/Op1 - Reporte.xlsx
+++ b/plantillas/Op1 - Reporte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruth\Documents\GitHub\Operativo-1 - copia\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8BD600-F9BE-4D30-99EA-D8815E560A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9197C743-4A34-4BE5-841E-B98857BC39FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19259,7 +19259,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F51"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>

--- a/plantillas/Op1 - Reporte.xlsx
+++ b/plantillas/Op1 - Reporte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruth\Documents\GitHub\Operativo-1 - copia\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9197C743-4A34-4BE5-841E-B98857BC39FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC81CD9-2878-48BA-A64D-BDDF8B7128E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="417">
   <si>
     <t>N</t>
   </si>
@@ -1302,6 +1302,12 @@
   <si>
     <t>Acta fiscal[p]</t>
   </si>
+  <si>
+    <t>Caja de instrumento de aplicación-ASC</t>
+  </si>
+  <si>
+    <t>Caja de instrumento de aplicación-NOM</t>
+  </si>
 </sst>
 </file>
 
@@ -1384,7 +1390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -2084,12 +2090,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD8D8D8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
@@ -2323,6 +2366,12 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19255,25 +19304,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF06A71F-AC7C-4552-80B2-45E5CA6F91C8}">
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="89" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="89"/>
+    <col min="8" max="8" width="11.42578125" style="118"/>
+    <col min="10" max="10" width="9.85546875" style="89" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" style="89"/>
-    <col min="15" max="15" width="11.42578125" style="89"/>
-    <col min="17" max="17" width="11.42578125" style="89" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="89"/>
     <col min="19" max="19" width="11.42578125" style="89"/>
+    <col min="21" max="21" width="11.42578125" style="89" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -19292,50 +19342,62 @@
       <c r="F1" s="76" t="s">
         <v>406</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="58" t="s">
+        <v>415</v>
+      </c>
+      <c r="H1" s="115" t="s">
+        <v>416</v>
+      </c>
+      <c r="I1" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="J1" s="99" t="s">
         <v>402</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="K1" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="L1" s="86" t="s">
         <v>404</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="M1" s="55" t="s">
         <v>400</v>
       </c>
-      <c r="L1" s="102" t="s">
+      <c r="N1" s="102" t="s">
         <v>405</v>
       </c>
-      <c r="M1" s="77" t="s">
+      <c r="O1" s="77" t="s">
         <v>399</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="P1" s="54" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q1" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="R1" s="54" t="s">
         <v>408</v>
       </c>
-      <c r="O1" s="86" t="s">
+      <c r="S1" s="86" t="s">
         <v>409</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="T1" s="55" t="s">
         <v>397</v>
       </c>
-      <c r="Q1" s="86" t="s">
+      <c r="U1" s="86" t="s">
         <v>410</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="V1" s="55" t="s">
         <v>396</v>
       </c>
-      <c r="S1" s="102" t="s">
+      <c r="W1" s="102" t="s">
         <v>411</v>
       </c>
-      <c r="T1" s="77" t="s">
+      <c r="X1" s="77" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="40">
         <v>1</v>
       </c>
@@ -19353,21 +19415,25 @@
       </c>
       <c r="F2" s="44"/>
       <c r="G2" s="47"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="87"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="41"/>
       <c r="L2" s="87"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="87"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="44"/>
       <c r="P2" s="41"/>
-      <c r="Q2" s="87"/>
+      <c r="Q2" s="41"/>
       <c r="R2" s="41"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="44"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S2" s="87"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="44"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="42">
         <f t="shared" ref="A3:A51" si="0">A2 + 1</f>
         <v>2</v>
@@ -19386,21 +19452,25 @@
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="48"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="88"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="101"/>
       <c r="K3" s="43"/>
       <c r="L3" s="88"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="88"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="45"/>
       <c r="P3" s="43"/>
-      <c r="Q3" s="88"/>
+      <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="45"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S3" s="88"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="45"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -19419,21 +19489,25 @@
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="47"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="87"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="100"/>
       <c r="K4" s="41"/>
       <c r="L4" s="87"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="87"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="44"/>
       <c r="P4" s="41"/>
-      <c r="Q4" s="87"/>
+      <c r="Q4" s="41"/>
       <c r="R4" s="41"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="44"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S4" s="87"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="44"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="42">
         <f>A4 + 1</f>
         <v>4</v>
@@ -19452,21 +19526,25 @@
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="48"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="88"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="43"/>
       <c r="L5" s="88"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="88"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="45"/>
       <c r="P5" s="43"/>
-      <c r="Q5" s="88"/>
+      <c r="Q5" s="43"/>
       <c r="R5" s="43"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="45"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S5" s="88"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="45"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -19485,21 +19563,25 @@
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="47"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="87"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="100"/>
       <c r="K6" s="41"/>
       <c r="L6" s="87"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="87"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="44"/>
       <c r="P6" s="41"/>
-      <c r="Q6" s="87"/>
+      <c r="Q6" s="41"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="44"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S6" s="87"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="44"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="42">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -19518,21 +19600,25 @@
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="48"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="88"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="101"/>
       <c r="K7" s="43"/>
       <c r="L7" s="88"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="88"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="45"/>
       <c r="P7" s="43"/>
-      <c r="Q7" s="88"/>
+      <c r="Q7" s="43"/>
       <c r="R7" s="43"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="45"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S7" s="88"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="45"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="40">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -19551,21 +19637,25 @@
       </c>
       <c r="F8" s="44"/>
       <c r="G8" s="47"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="87"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="100"/>
       <c r="K8" s="41"/>
       <c r="L8" s="87"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="87"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="44"/>
       <c r="P8" s="41"/>
-      <c r="Q8" s="87"/>
+      <c r="Q8" s="41"/>
       <c r="R8" s="41"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="44"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S8" s="87"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="44"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="42">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -19584,21 +19674,25 @@
       </c>
       <c r="F9" s="45"/>
       <c r="G9" s="48"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="88"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="101"/>
       <c r="K9" s="43"/>
       <c r="L9" s="88"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="88"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="45"/>
       <c r="P9" s="43"/>
-      <c r="Q9" s="88"/>
+      <c r="Q9" s="43"/>
       <c r="R9" s="43"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="45"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S9" s="88"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="45"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="40">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -19617,21 +19711,25 @@
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="47"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="87"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="100"/>
       <c r="K10" s="41"/>
       <c r="L10" s="87"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="87"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="44"/>
       <c r="P10" s="41"/>
-      <c r="Q10" s="87"/>
+      <c r="Q10" s="41"/>
       <c r="R10" s="41"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="44"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S10" s="87"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="44"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="42">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -19650,21 +19748,25 @@
       </c>
       <c r="F11" s="45"/>
       <c r="G11" s="48"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="88"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="101"/>
       <c r="K11" s="43"/>
       <c r="L11" s="88"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="88"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="45"/>
       <c r="P11" s="43"/>
-      <c r="Q11" s="88"/>
+      <c r="Q11" s="43"/>
       <c r="R11" s="43"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="45"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S11" s="88"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="45"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -19683,21 +19785,25 @@
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="47"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="87"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="100"/>
       <c r="K12" s="41"/>
       <c r="L12" s="87"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="87"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="44"/>
       <c r="P12" s="41"/>
-      <c r="Q12" s="87"/>
+      <c r="Q12" s="41"/>
       <c r="R12" s="41"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="44"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S12" s="87"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="44"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="42">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -19716,21 +19822,25 @@
       </c>
       <c r="F13" s="45"/>
       <c r="G13" s="48"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="88"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="101"/>
       <c r="K13" s="43"/>
       <c r="L13" s="88"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="88"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="45"/>
       <c r="P13" s="43"/>
-      <c r="Q13" s="88"/>
+      <c r="Q13" s="43"/>
       <c r="R13" s="43"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="45"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S13" s="88"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="45"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -19749,21 +19859,25 @@
       </c>
       <c r="F14" s="44"/>
       <c r="G14" s="47"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="87"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="100"/>
       <c r="K14" s="41"/>
       <c r="L14" s="87"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="87"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="44"/>
       <c r="P14" s="41"/>
-      <c r="Q14" s="87"/>
+      <c r="Q14" s="41"/>
       <c r="R14" s="41"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="44"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S14" s="87"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="44"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="42">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -19782,21 +19896,25 @@
       </c>
       <c r="F15" s="45"/>
       <c r="G15" s="48"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="88"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="101"/>
       <c r="K15" s="43"/>
       <c r="L15" s="88"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="88"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="45"/>
       <c r="P15" s="43"/>
-      <c r="Q15" s="88"/>
+      <c r="Q15" s="43"/>
       <c r="R15" s="43"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="45"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S15" s="88"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="45"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -19805,31 +19923,35 @@
         <v>31</v>
       </c>
       <c r="C16" s="47">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" s="73">
         <v>6</v>
       </c>
       <c r="F16" s="44"/>
       <c r="G16" s="47"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="87"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="100"/>
       <c r="K16" s="41"/>
       <c r="L16" s="87"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="87"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="44"/>
       <c r="P16" s="41"/>
-      <c r="Q16" s="87"/>
+      <c r="Q16" s="41"/>
       <c r="R16" s="41"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="44"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S16" s="87"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="44"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="42">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -19848,21 +19970,25 @@
       </c>
       <c r="F17" s="45"/>
       <c r="G17" s="48"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="88"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="101"/>
       <c r="K17" s="43"/>
       <c r="L17" s="88"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="88"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="45"/>
       <c r="P17" s="43"/>
-      <c r="Q17" s="88"/>
+      <c r="Q17" s="43"/>
       <c r="R17" s="43"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="45"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S17" s="88"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="45"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -19881,21 +20007,25 @@
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="47"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="87"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="100"/>
       <c r="K18" s="41"/>
       <c r="L18" s="87"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="87"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="44"/>
       <c r="P18" s="41"/>
-      <c r="Q18" s="87"/>
+      <c r="Q18" s="41"/>
       <c r="R18" s="41"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="44"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S18" s="87"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="44"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="42">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -19914,21 +20044,25 @@
       </c>
       <c r="F19" s="45"/>
       <c r="G19" s="48"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="88"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="101"/>
       <c r="K19" s="43"/>
       <c r="L19" s="88"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="88"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="45"/>
       <c r="P19" s="43"/>
-      <c r="Q19" s="88"/>
+      <c r="Q19" s="43"/>
       <c r="R19" s="43"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="45"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S19" s="88"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="45"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -19947,21 +20081,25 @@
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="47"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="87"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="100"/>
       <c r="K20" s="41"/>
       <c r="L20" s="87"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="87"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="44"/>
       <c r="P20" s="41"/>
-      <c r="Q20" s="87"/>
+      <c r="Q20" s="41"/>
       <c r="R20" s="41"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="44"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S20" s="87"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="87"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="83"/>
+      <c r="X20" s="44"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="42">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -19980,21 +20118,25 @@
       </c>
       <c r="F21" s="45"/>
       <c r="G21" s="48"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="88"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="101"/>
       <c r="K21" s="43"/>
       <c r="L21" s="88"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="88"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="45"/>
       <c r="P21" s="43"/>
-      <c r="Q21" s="88"/>
+      <c r="Q21" s="43"/>
       <c r="R21" s="43"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="45"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S21" s="88"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="88"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="45"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -20013,21 +20155,25 @@
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="47"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="87"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="100"/>
       <c r="K22" s="41"/>
       <c r="L22" s="87"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="87"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="44"/>
       <c r="P22" s="41"/>
-      <c r="Q22" s="87"/>
+      <c r="Q22" s="41"/>
       <c r="R22" s="41"/>
-      <c r="S22" s="83"/>
-      <c r="T22" s="44"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S22" s="87"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="83"/>
+      <c r="X22" s="44"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="42">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -20046,21 +20192,25 @@
       </c>
       <c r="F23" s="45"/>
       <c r="G23" s="48"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="88"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="101"/>
       <c r="K23" s="43"/>
       <c r="L23" s="88"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="88"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="45"/>
       <c r="P23" s="43"/>
-      <c r="Q23" s="88"/>
+      <c r="Q23" s="43"/>
       <c r="R23" s="43"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="45"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S23" s="88"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="88"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="45"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -20079,21 +20229,25 @@
       </c>
       <c r="F24" s="44"/>
       <c r="G24" s="47"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="87"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="100"/>
       <c r="K24" s="41"/>
       <c r="L24" s="87"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="87"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="44"/>
       <c r="P24" s="41"/>
-      <c r="Q24" s="87"/>
+      <c r="Q24" s="41"/>
       <c r="R24" s="41"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="44"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S24" s="87"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="44"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="42">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -20105,28 +20259,32 @@
         <v>23</v>
       </c>
       <c r="D25" s="43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E25" s="74">
         <v>6</v>
       </c>
       <c r="F25" s="45"/>
       <c r="G25" s="48"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="88"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="101"/>
       <c r="K25" s="43"/>
       <c r="L25" s="88"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="88"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="45"/>
       <c r="P25" s="43"/>
-      <c r="Q25" s="88"/>
+      <c r="Q25" s="43"/>
       <c r="R25" s="43"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="45"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S25" s="88"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="88"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="45"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -20145,21 +20303,25 @@
       </c>
       <c r="F26" s="44"/>
       <c r="G26" s="47"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="87"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="100"/>
       <c r="K26" s="41"/>
       <c r="L26" s="87"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="87"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="44"/>
       <c r="P26" s="41"/>
-      <c r="Q26" s="87"/>
+      <c r="Q26" s="41"/>
       <c r="R26" s="41"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="44"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S26" s="87"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="83"/>
+      <c r="X26" s="44"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="42">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -20178,21 +20340,25 @@
       </c>
       <c r="F27" s="45"/>
       <c r="G27" s="48"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="88"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="101"/>
       <c r="K27" s="43"/>
       <c r="L27" s="88"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="88"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="45"/>
       <c r="P27" s="43"/>
-      <c r="Q27" s="88"/>
+      <c r="Q27" s="43"/>
       <c r="R27" s="43"/>
-      <c r="S27" s="84"/>
-      <c r="T27" s="45"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S27" s="88"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="84"/>
+      <c r="X27" s="45"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -20211,21 +20377,25 @@
       </c>
       <c r="F28" s="44"/>
       <c r="G28" s="47"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="87"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="100"/>
       <c r="K28" s="41"/>
       <c r="L28" s="87"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="87"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="44"/>
       <c r="P28" s="41"/>
-      <c r="Q28" s="87"/>
+      <c r="Q28" s="41"/>
       <c r="R28" s="41"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="44"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S28" s="87"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="44"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="42">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -20244,21 +20414,25 @@
       </c>
       <c r="F29" s="45"/>
       <c r="G29" s="48"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="88"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="101"/>
       <c r="K29" s="43"/>
       <c r="L29" s="88"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="88"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="45"/>
       <c r="P29" s="43"/>
-      <c r="Q29" s="88"/>
+      <c r="Q29" s="43"/>
       <c r="R29" s="43"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="45"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S29" s="88"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="84"/>
+      <c r="X29" s="45"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -20270,28 +20444,32 @@
         <v>39</v>
       </c>
       <c r="D30" s="41">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="73">
         <v>12</v>
       </c>
       <c r="F30" s="44"/>
       <c r="G30" s="47"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="87"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="100"/>
       <c r="K30" s="41"/>
       <c r="L30" s="87"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="87"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="44"/>
       <c r="P30" s="41"/>
-      <c r="Q30" s="87"/>
+      <c r="Q30" s="41"/>
       <c r="R30" s="41"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="44"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S30" s="87"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="44"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="42">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -20310,21 +20488,25 @@
       </c>
       <c r="F31" s="45"/>
       <c r="G31" s="48"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="88"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="101"/>
       <c r="K31" s="43"/>
       <c r="L31" s="88"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="88"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="45"/>
       <c r="P31" s="43"/>
-      <c r="Q31" s="88"/>
+      <c r="Q31" s="43"/>
       <c r="R31" s="43"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="45"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S31" s="88"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="88"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="84"/>
+      <c r="X31" s="45"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -20343,21 +20525,25 @@
       </c>
       <c r="F32" s="44"/>
       <c r="G32" s="47"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="87"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="100"/>
       <c r="K32" s="41"/>
       <c r="L32" s="87"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="87"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="44"/>
       <c r="P32" s="41"/>
-      <c r="Q32" s="87"/>
+      <c r="Q32" s="41"/>
       <c r="R32" s="41"/>
-      <c r="S32" s="83"/>
-      <c r="T32" s="44"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S32" s="87"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="87"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="83"/>
+      <c r="X32" s="44"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="42">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -20376,21 +20562,25 @@
       </c>
       <c r="F33" s="45"/>
       <c r="G33" s="48"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="88"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="101"/>
       <c r="K33" s="43"/>
       <c r="L33" s="88"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="88"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="45"/>
       <c r="P33" s="43"/>
-      <c r="Q33" s="88"/>
+      <c r="Q33" s="43"/>
       <c r="R33" s="43"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="45"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S33" s="88"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="84"/>
+      <c r="X33" s="45"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -20399,31 +20589,35 @@
         <v>49</v>
       </c>
       <c r="C34" s="47">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D34" s="41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34" s="73">
         <v>10</v>
       </c>
       <c r="F34" s="44"/>
       <c r="G34" s="47"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="87"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="100"/>
       <c r="K34" s="41"/>
       <c r="L34" s="87"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="87"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="44"/>
       <c r="P34" s="41"/>
-      <c r="Q34" s="87"/>
+      <c r="Q34" s="41"/>
       <c r="R34" s="41"/>
-      <c r="S34" s="83"/>
-      <c r="T34" s="44"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S34" s="87"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="83"/>
+      <c r="X34" s="44"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="42">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -20442,21 +20636,25 @@
       </c>
       <c r="F35" s="45"/>
       <c r="G35" s="48"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="88"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="101"/>
       <c r="K35" s="43"/>
       <c r="L35" s="88"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="88"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="45"/>
       <c r="P35" s="43"/>
-      <c r="Q35" s="88"/>
+      <c r="Q35" s="43"/>
       <c r="R35" s="43"/>
-      <c r="S35" s="84"/>
-      <c r="T35" s="45"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S35" s="88"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="88"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="84"/>
+      <c r="X35" s="45"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -20475,21 +20673,25 @@
       </c>
       <c r="F36" s="44"/>
       <c r="G36" s="47"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="87"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="100"/>
       <c r="K36" s="41"/>
       <c r="L36" s="87"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="87"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="44"/>
       <c r="P36" s="41"/>
-      <c r="Q36" s="87"/>
+      <c r="Q36" s="41"/>
       <c r="R36" s="41"/>
-      <c r="S36" s="83"/>
-      <c r="T36" s="44"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S36" s="87"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="87"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="83"/>
+      <c r="X36" s="44"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="42">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -20498,7 +20700,7 @@
         <v>52</v>
       </c>
       <c r="C37" s="48">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" s="43">
         <v>8</v>
@@ -20508,21 +20710,25 @@
       </c>
       <c r="F37" s="45"/>
       <c r="G37" s="48"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="88"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="101"/>
       <c r="K37" s="43"/>
       <c r="L37" s="88"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="88"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="45"/>
       <c r="P37" s="43"/>
-      <c r="Q37" s="88"/>
+      <c r="Q37" s="43"/>
       <c r="R37" s="43"/>
-      <c r="S37" s="84"/>
-      <c r="T37" s="45"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S37" s="88"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="88"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="84"/>
+      <c r="X37" s="45"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -20541,21 +20747,25 @@
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="47"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="87"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="100"/>
       <c r="K38" s="41"/>
       <c r="L38" s="87"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="87"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="87"/>
+      <c r="O38" s="44"/>
       <c r="P38" s="41"/>
-      <c r="Q38" s="87"/>
+      <c r="Q38" s="41"/>
       <c r="R38" s="41"/>
-      <c r="S38" s="83"/>
-      <c r="T38" s="44"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S38" s="87"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="87"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="83"/>
+      <c r="X38" s="44"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="42">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -20574,21 +20784,25 @@
       </c>
       <c r="F39" s="45"/>
       <c r="G39" s="48"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="88"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="101"/>
       <c r="K39" s="43"/>
       <c r="L39" s="88"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="88"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="45"/>
       <c r="P39" s="43"/>
-      <c r="Q39" s="88"/>
+      <c r="Q39" s="43"/>
       <c r="R39" s="43"/>
-      <c r="S39" s="84"/>
-      <c r="T39" s="45"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S39" s="88"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="88"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="84"/>
+      <c r="X39" s="45"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -20607,21 +20821,25 @@
       </c>
       <c r="F40" s="44"/>
       <c r="G40" s="47"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="87"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="100"/>
       <c r="K40" s="41"/>
       <c r="L40" s="87"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="87"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="44"/>
       <c r="P40" s="41"/>
-      <c r="Q40" s="87"/>
+      <c r="Q40" s="41"/>
       <c r="R40" s="41"/>
-      <c r="S40" s="83"/>
-      <c r="T40" s="44"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S40" s="87"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="87"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="83"/>
+      <c r="X40" s="44"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -20640,21 +20858,25 @@
       </c>
       <c r="F41" s="45"/>
       <c r="G41" s="48"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="88"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="101"/>
       <c r="K41" s="43"/>
       <c r="L41" s="88"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="88"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="45"/>
       <c r="P41" s="43"/>
-      <c r="Q41" s="88"/>
+      <c r="Q41" s="43"/>
       <c r="R41" s="43"/>
-      <c r="S41" s="84"/>
-      <c r="T41" s="45"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S41" s="88"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="88"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="84"/>
+      <c r="X41" s="45"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -20663,31 +20885,35 @@
         <v>57</v>
       </c>
       <c r="C42" s="47">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42" s="41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" s="73">
         <v>10</v>
       </c>
       <c r="F42" s="44"/>
       <c r="G42" s="47"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="87"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="100"/>
       <c r="K42" s="41"/>
       <c r="L42" s="87"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="87"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="44"/>
       <c r="P42" s="41"/>
-      <c r="Q42" s="87"/>
+      <c r="Q42" s="41"/>
       <c r="R42" s="41"/>
-      <c r="S42" s="83"/>
-      <c r="T42" s="44"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S42" s="87"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="87"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="83"/>
+      <c r="X42" s="44"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="42">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -20706,21 +20932,25 @@
       </c>
       <c r="F43" s="45"/>
       <c r="G43" s="48"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="88"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="101"/>
       <c r="K43" s="43"/>
       <c r="L43" s="88"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="88"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="88"/>
+      <c r="O43" s="45"/>
       <c r="P43" s="43"/>
-      <c r="Q43" s="88"/>
+      <c r="Q43" s="43"/>
       <c r="R43" s="43"/>
-      <c r="S43" s="84"/>
-      <c r="T43" s="45"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S43" s="88"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="88"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="84"/>
+      <c r="X43" s="45"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -20739,21 +20969,25 @@
       </c>
       <c r="F44" s="44"/>
       <c r="G44" s="47"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="87"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="100"/>
       <c r="K44" s="41"/>
       <c r="L44" s="87"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="87"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="44"/>
       <c r="P44" s="41"/>
-      <c r="Q44" s="87"/>
+      <c r="Q44" s="41"/>
       <c r="R44" s="41"/>
-      <c r="S44" s="83"/>
-      <c r="T44" s="44"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S44" s="87"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="87"/>
+      <c r="V44" s="41"/>
+      <c r="W44" s="83"/>
+      <c r="X44" s="44"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="42">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -20772,21 +21006,25 @@
       </c>
       <c r="F45" s="45"/>
       <c r="G45" s="48"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="88"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="101"/>
       <c r="K45" s="43"/>
       <c r="L45" s="88"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="88"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="88"/>
+      <c r="O45" s="45"/>
       <c r="P45" s="43"/>
-      <c r="Q45" s="88"/>
+      <c r="Q45" s="43"/>
       <c r="R45" s="43"/>
-      <c r="S45" s="84"/>
-      <c r="T45" s="45"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S45" s="88"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="88"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="84"/>
+      <c r="X45" s="45"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -20805,21 +21043,25 @@
       </c>
       <c r="F46" s="44"/>
       <c r="G46" s="47"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="87"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="100"/>
       <c r="K46" s="41"/>
       <c r="L46" s="87"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="87"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="44"/>
       <c r="P46" s="41"/>
-      <c r="Q46" s="87"/>
+      <c r="Q46" s="41"/>
       <c r="R46" s="41"/>
-      <c r="S46" s="83"/>
-      <c r="T46" s="44"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S46" s="87"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="87"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="83"/>
+      <c r="X46" s="44"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="42">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -20838,21 +21080,25 @@
       </c>
       <c r="F47" s="45"/>
       <c r="G47" s="48"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="88"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="101"/>
       <c r="K47" s="43"/>
       <c r="L47" s="88"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="88"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="45"/>
       <c r="P47" s="43"/>
-      <c r="Q47" s="88"/>
+      <c r="Q47" s="43"/>
       <c r="R47" s="43"/>
-      <c r="S47" s="84"/>
-      <c r="T47" s="45"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S47" s="88"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="88"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="84"/>
+      <c r="X47" s="45"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -20871,21 +21117,25 @@
       </c>
       <c r="F48" s="44"/>
       <c r="G48" s="47"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="87"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="100"/>
       <c r="K48" s="41"/>
       <c r="L48" s="87"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="87"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="44"/>
       <c r="P48" s="41"/>
-      <c r="Q48" s="87"/>
+      <c r="Q48" s="41"/>
       <c r="R48" s="41"/>
-      <c r="S48" s="83"/>
-      <c r="T48" s="44"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S48" s="87"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="87"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="83"/>
+      <c r="X48" s="44"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="42">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -20904,21 +21154,25 @@
       </c>
       <c r="F49" s="45"/>
       <c r="G49" s="48"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="88"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="101"/>
       <c r="K49" s="43"/>
       <c r="L49" s="88"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="88"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="88"/>
+      <c r="O49" s="45"/>
       <c r="P49" s="43"/>
-      <c r="Q49" s="88"/>
+      <c r="Q49" s="43"/>
       <c r="R49" s="43"/>
-      <c r="S49" s="84"/>
-      <c r="T49" s="45"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S49" s="88"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="88"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="84"/>
+      <c r="X49" s="45"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -20927,7 +21181,7 @@
         <v>65</v>
       </c>
       <c r="C50" s="47">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" s="41">
         <v>3</v>
@@ -20937,21 +21191,25 @@
       </c>
       <c r="F50" s="44"/>
       <c r="G50" s="47"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="87"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="100"/>
       <c r="K50" s="41"/>
       <c r="L50" s="87"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="87"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="44"/>
       <c r="P50" s="41"/>
-      <c r="Q50" s="87"/>
+      <c r="Q50" s="41"/>
       <c r="R50" s="41"/>
-      <c r="S50" s="83"/>
-      <c r="T50" s="44"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S50" s="87"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="87"/>
+      <c r="V50" s="41"/>
+      <c r="W50" s="83"/>
+      <c r="X50" s="44"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="42">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -20970,19 +21228,23 @@
       </c>
       <c r="F51" s="45"/>
       <c r="G51" s="48"/>
-      <c r="H51" s="101"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="88"/>
+      <c r="H51" s="117"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="101"/>
       <c r="K51" s="43"/>
       <c r="L51" s="88"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="88"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="88"/>
+      <c r="O51" s="45"/>
       <c r="P51" s="43"/>
-      <c r="Q51" s="88"/>
+      <c r="Q51" s="43"/>
       <c r="R51" s="43"/>
-      <c r="S51" s="84"/>
-      <c r="T51" s="45"/>
+      <c r="S51" s="88"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="88"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="84"/>
+      <c r="X51" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plantillas/Op1 - Reporte.xlsx
+++ b/plantillas/Op1 - Reporte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruth\Documents\GitHub\Operativo-1 - copia\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC81CD9-2878-48BA-A64D-BDDF8B7128E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932E1DC2-9BD9-4DD7-9F7E-6FFB5A2FAED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="415">
   <si>
     <t>N</t>
   </si>
@@ -1302,12 +1302,6 @@
   <si>
     <t>Acta fiscal[p]</t>
   </si>
-  <si>
-    <t>Caja de instrumento de aplicación-ASC</t>
-  </si>
-  <si>
-    <t>Caja de instrumento de aplicación-NOM</t>
-  </si>
 </sst>
 </file>
 
@@ -1390,7 +1384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -2090,49 +2084,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD8D8D8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.14999847407452621"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
@@ -2366,12 +2323,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19304,26 +19255,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF06A71F-AC7C-4552-80B2-45E5CA6F91C8}">
-  <dimension ref="A1:X51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:E51"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="118"/>
-    <col min="10" max="10" width="9.85546875" style="89" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="89" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="89"/>
     <col min="12" max="12" width="11.42578125" style="89"/>
-    <col min="14" max="14" width="11.42578125" style="89"/>
+    <col min="15" max="15" width="11.42578125" style="89"/>
+    <col min="17" max="17" width="11.42578125" style="89" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" style="89"/>
-    <col min="21" max="21" width="11.42578125" style="89" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -19342,62 +19292,50 @@
       <c r="F1" s="76" t="s">
         <v>406</v>
       </c>
-      <c r="G1" s="58" t="s">
-        <v>415</v>
-      </c>
-      <c r="H1" s="115" t="s">
-        <v>416</v>
+      <c r="G1" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="H1" s="99" t="s">
+        <v>402</v>
       </c>
       <c r="I1" s="54" t="s">
-        <v>401</v>
-      </c>
-      <c r="J1" s="99" t="s">
-        <v>402</v>
-      </c>
-      <c r="K1" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="L1" s="86" t="s">
+      <c r="J1" s="86" t="s">
         <v>404</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="K1" s="55" t="s">
         <v>400</v>
       </c>
-      <c r="N1" s="102" t="s">
+      <c r="L1" s="102" t="s">
         <v>405</v>
       </c>
-      <c r="O1" s="77" t="s">
+      <c r="M1" s="77" t="s">
         <v>399</v>
       </c>
-      <c r="P1" s="54" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q1" s="54" t="s">
-        <v>416</v>
-      </c>
-      <c r="R1" s="54" t="s">
+      <c r="N1" s="54" t="s">
         <v>408</v>
       </c>
-      <c r="S1" s="86" t="s">
+      <c r="O1" s="86" t="s">
         <v>409</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="P1" s="55" t="s">
         <v>397</v>
       </c>
-      <c r="U1" s="86" t="s">
+      <c r="Q1" s="86" t="s">
         <v>410</v>
       </c>
-      <c r="V1" s="55" t="s">
+      <c r="R1" s="55" t="s">
         <v>396</v>
       </c>
-      <c r="W1" s="102" t="s">
+      <c r="S1" s="102" t="s">
         <v>411</v>
       </c>
-      <c r="X1" s="77" t="s">
+      <c r="T1" s="77" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="40">
         <v>1</v>
       </c>
@@ -19415,25 +19353,21 @@
       </c>
       <c r="F2" s="44"/>
       <c r="G2" s="47"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="87"/>
       <c r="K2" s="41"/>
       <c r="L2" s="87"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="87"/>
       <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
+      <c r="Q2" s="87"/>
       <c r="R2" s="41"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="44"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S2" s="83"/>
+      <c r="T2" s="44"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="42">
         <f t="shared" ref="A3:A51" si="0">A2 + 1</f>
         <v>2</v>
@@ -19452,25 +19386,21 @@
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="48"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="88"/>
       <c r="K3" s="43"/>
       <c r="L3" s="88"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="88"/>
       <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
+      <c r="Q3" s="88"/>
       <c r="R3" s="43"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="45"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S3" s="84"/>
+      <c r="T3" s="45"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -19489,25 +19419,21 @@
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="47"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="87"/>
       <c r="K4" s="41"/>
       <c r="L4" s="87"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="87"/>
       <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
+      <c r="Q4" s="87"/>
       <c r="R4" s="41"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="44"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S4" s="83"/>
+      <c r="T4" s="44"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="42">
         <f>A4 + 1</f>
         <v>4</v>
@@ -19526,25 +19452,21 @@
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="48"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="43"/>
       <c r="L5" s="88"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="88"/>
       <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
+      <c r="Q5" s="88"/>
       <c r="R5" s="43"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="45"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S5" s="84"/>
+      <c r="T5" s="45"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -19563,25 +19485,21 @@
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="47"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="87"/>
       <c r="K6" s="41"/>
       <c r="L6" s="87"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="87"/>
       <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
+      <c r="Q6" s="87"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="44"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S6" s="83"/>
+      <c r="T6" s="44"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="42">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -19600,25 +19518,21 @@
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="48"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="88"/>
       <c r="K7" s="43"/>
       <c r="L7" s="88"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="88"/>
       <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
+      <c r="Q7" s="88"/>
       <c r="R7" s="43"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="45"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S7" s="84"/>
+      <c r="T7" s="45"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="40">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -19637,25 +19551,21 @@
       </c>
       <c r="F8" s="44"/>
       <c r="G8" s="47"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="87"/>
       <c r="K8" s="41"/>
       <c r="L8" s="87"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="87"/>
       <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
+      <c r="Q8" s="87"/>
       <c r="R8" s="41"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="44"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S8" s="83"/>
+      <c r="T8" s="44"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="42">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -19674,25 +19584,21 @@
       </c>
       <c r="F9" s="45"/>
       <c r="G9" s="48"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="88"/>
       <c r="K9" s="43"/>
       <c r="L9" s="88"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="88"/>
       <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
+      <c r="Q9" s="88"/>
       <c r="R9" s="43"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="45"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S9" s="84"/>
+      <c r="T9" s="45"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="40">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -19711,25 +19617,21 @@
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="47"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="87"/>
       <c r="K10" s="41"/>
       <c r="L10" s="87"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="87"/>
       <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
+      <c r="Q10" s="87"/>
       <c r="R10" s="41"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="44"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S10" s="83"/>
+      <c r="T10" s="44"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="42">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -19748,25 +19650,21 @@
       </c>
       <c r="F11" s="45"/>
       <c r="G11" s="48"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="88"/>
       <c r="K11" s="43"/>
       <c r="L11" s="88"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="88"/>
       <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
+      <c r="Q11" s="88"/>
       <c r="R11" s="43"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="45"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S11" s="84"/>
+      <c r="T11" s="45"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -19785,25 +19683,21 @@
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="47"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="87"/>
       <c r="K12" s="41"/>
       <c r="L12" s="87"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="87"/>
       <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
+      <c r="Q12" s="87"/>
       <c r="R12" s="41"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="44"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S12" s="83"/>
+      <c r="T12" s="44"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="42">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -19822,25 +19716,21 @@
       </c>
       <c r="F13" s="45"/>
       <c r="G13" s="48"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="88"/>
       <c r="K13" s="43"/>
       <c r="L13" s="88"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="88"/>
       <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
+      <c r="Q13" s="88"/>
       <c r="R13" s="43"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="45"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S13" s="84"/>
+      <c r="T13" s="45"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -19859,25 +19749,21 @@
       </c>
       <c r="F14" s="44"/>
       <c r="G14" s="47"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="87"/>
       <c r="K14" s="41"/>
       <c r="L14" s="87"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="87"/>
       <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
+      <c r="Q14" s="87"/>
       <c r="R14" s="41"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="44"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S14" s="83"/>
+      <c r="T14" s="44"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="42">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -19896,25 +19782,21 @@
       </c>
       <c r="F15" s="45"/>
       <c r="G15" s="48"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="88"/>
       <c r="K15" s="43"/>
       <c r="L15" s="88"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="88"/>
       <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
+      <c r="Q15" s="88"/>
       <c r="R15" s="43"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="45"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S15" s="84"/>
+      <c r="T15" s="45"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -19933,25 +19815,21 @@
       </c>
       <c r="F16" s="44"/>
       <c r="G16" s="47"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="87"/>
       <c r="K16" s="41"/>
       <c r="L16" s="87"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="87"/>
       <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
+      <c r="Q16" s="87"/>
       <c r="R16" s="41"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="44"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S16" s="83"/>
+      <c r="T16" s="44"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="42">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -19970,25 +19848,21 @@
       </c>
       <c r="F17" s="45"/>
       <c r="G17" s="48"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="88"/>
       <c r="K17" s="43"/>
       <c r="L17" s="88"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="88"/>
       <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
+      <c r="Q17" s="88"/>
       <c r="R17" s="43"/>
-      <c r="S17" s="88"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="88"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="45"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S17" s="84"/>
+      <c r="T17" s="45"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -20007,25 +19881,21 @@
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="47"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="87"/>
       <c r="K18" s="41"/>
       <c r="L18" s="87"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="87"/>
       <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
+      <c r="Q18" s="87"/>
       <c r="R18" s="41"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="44"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S18" s="83"/>
+      <c r="T18" s="44"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="42">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -20044,25 +19914,21 @@
       </c>
       <c r="F19" s="45"/>
       <c r="G19" s="48"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="88"/>
       <c r="K19" s="43"/>
       <c r="L19" s="88"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="88"/>
       <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
+      <c r="Q19" s="88"/>
       <c r="R19" s="43"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="88"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="84"/>
-      <c r="X19" s="45"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S19" s="84"/>
+      <c r="T19" s="45"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -20081,25 +19947,21 @@
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="47"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="87"/>
       <c r="K20" s="41"/>
       <c r="L20" s="87"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="87"/>
       <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
+      <c r="Q20" s="87"/>
       <c r="R20" s="41"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="87"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="44"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S20" s="83"/>
+      <c r="T20" s="44"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="42">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -20118,25 +19980,21 @@
       </c>
       <c r="F21" s="45"/>
       <c r="G21" s="48"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="88"/>
       <c r="K21" s="43"/>
       <c r="L21" s="88"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="88"/>
       <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
+      <c r="Q21" s="88"/>
       <c r="R21" s="43"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="88"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="45"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S21" s="84"/>
+      <c r="T21" s="45"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -20155,25 +20013,21 @@
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="47"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="87"/>
       <c r="K22" s="41"/>
       <c r="L22" s="87"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="87"/>
       <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
+      <c r="Q22" s="87"/>
       <c r="R22" s="41"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="87"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="83"/>
-      <c r="X22" s="44"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S22" s="83"/>
+      <c r="T22" s="44"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="42">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -20192,25 +20046,21 @@
       </c>
       <c r="F23" s="45"/>
       <c r="G23" s="48"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="88"/>
       <c r="K23" s="43"/>
       <c r="L23" s="88"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="88"/>
       <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
+      <c r="Q23" s="88"/>
       <c r="R23" s="43"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="88"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="45"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S23" s="84"/>
+      <c r="T23" s="45"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -20229,25 +20079,21 @@
       </c>
       <c r="F24" s="44"/>
       <c r="G24" s="47"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="87"/>
       <c r="K24" s="41"/>
       <c r="L24" s="87"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="87"/>
       <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
+      <c r="Q24" s="87"/>
       <c r="R24" s="41"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="44"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S24" s="83"/>
+      <c r="T24" s="44"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="42">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -20266,25 +20112,21 @@
       </c>
       <c r="F25" s="45"/>
       <c r="G25" s="48"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="88"/>
       <c r="K25" s="43"/>
       <c r="L25" s="88"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="88"/>
       <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
+      <c r="Q25" s="88"/>
       <c r="R25" s="43"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="88"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="45"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S25" s="84"/>
+      <c r="T25" s="45"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -20303,25 +20145,21 @@
       </c>
       <c r="F26" s="44"/>
       <c r="G26" s="47"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="87"/>
       <c r="K26" s="41"/>
       <c r="L26" s="87"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="87"/>
       <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
+      <c r="Q26" s="87"/>
       <c r="R26" s="41"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="83"/>
-      <c r="X26" s="44"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S26" s="83"/>
+      <c r="T26" s="44"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="42">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -20340,25 +20178,21 @@
       </c>
       <c r="F27" s="45"/>
       <c r="G27" s="48"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="88"/>
       <c r="K27" s="43"/>
       <c r="L27" s="88"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="88"/>
       <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
+      <c r="Q27" s="88"/>
       <c r="R27" s="43"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="88"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="84"/>
-      <c r="X27" s="45"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S27" s="84"/>
+      <c r="T27" s="45"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -20377,25 +20211,21 @@
       </c>
       <c r="F28" s="44"/>
       <c r="G28" s="47"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="87"/>
       <c r="K28" s="41"/>
       <c r="L28" s="87"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="87"/>
       <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
+      <c r="Q28" s="87"/>
       <c r="R28" s="41"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="87"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="83"/>
-      <c r="X28" s="44"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S28" s="83"/>
+      <c r="T28" s="44"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="42">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -20414,25 +20244,21 @@
       </c>
       <c r="F29" s="45"/>
       <c r="G29" s="48"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="88"/>
       <c r="K29" s="43"/>
       <c r="L29" s="88"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="88"/>
       <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
+      <c r="Q29" s="88"/>
       <c r="R29" s="43"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="84"/>
-      <c r="X29" s="45"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S29" s="84"/>
+      <c r="T29" s="45"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -20451,25 +20277,21 @@
       </c>
       <c r="F30" s="44"/>
       <c r="G30" s="47"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="87"/>
       <c r="K30" s="41"/>
       <c r="L30" s="87"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="87"/>
       <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
+      <c r="Q30" s="87"/>
       <c r="R30" s="41"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="83"/>
-      <c r="X30" s="44"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S30" s="83"/>
+      <c r="T30" s="44"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="42">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -20488,25 +20310,21 @@
       </c>
       <c r="F31" s="45"/>
       <c r="G31" s="48"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="88"/>
       <c r="K31" s="43"/>
       <c r="L31" s="88"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="88"/>
       <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
+      <c r="Q31" s="88"/>
       <c r="R31" s="43"/>
-      <c r="S31" s="88"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="88"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="84"/>
-      <c r="X31" s="45"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S31" s="84"/>
+      <c r="T31" s="45"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -20525,25 +20343,21 @@
       </c>
       <c r="F32" s="44"/>
       <c r="G32" s="47"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="87"/>
       <c r="K32" s="41"/>
       <c r="L32" s="87"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="87"/>
       <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
+      <c r="Q32" s="87"/>
       <c r="R32" s="41"/>
-      <c r="S32" s="87"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="87"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="83"/>
-      <c r="X32" s="44"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S32" s="83"/>
+      <c r="T32" s="44"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="42">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -20562,25 +20376,21 @@
       </c>
       <c r="F33" s="45"/>
       <c r="G33" s="48"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="88"/>
       <c r="K33" s="43"/>
       <c r="L33" s="88"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="88"/>
       <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
+      <c r="Q33" s="88"/>
       <c r="R33" s="43"/>
-      <c r="S33" s="88"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="88"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="84"/>
-      <c r="X33" s="45"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S33" s="84"/>
+      <c r="T33" s="45"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -20599,25 +20409,21 @@
       </c>
       <c r="F34" s="44"/>
       <c r="G34" s="47"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="87"/>
       <c r="K34" s="41"/>
       <c r="L34" s="87"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="87"/>
       <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
+      <c r="Q34" s="87"/>
       <c r="R34" s="41"/>
-      <c r="S34" s="87"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="87"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="83"/>
-      <c r="X34" s="44"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S34" s="83"/>
+      <c r="T34" s="44"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="42">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -20636,25 +20442,21 @@
       </c>
       <c r="F35" s="45"/>
       <c r="G35" s="48"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="88"/>
       <c r="K35" s="43"/>
       <c r="L35" s="88"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="88"/>
       <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
+      <c r="Q35" s="88"/>
       <c r="R35" s="43"/>
-      <c r="S35" s="88"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="88"/>
-      <c r="V35" s="43"/>
-      <c r="W35" s="84"/>
-      <c r="X35" s="45"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S35" s="84"/>
+      <c r="T35" s="45"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -20673,25 +20475,21 @@
       </c>
       <c r="F36" s="44"/>
       <c r="G36" s="47"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="87"/>
       <c r="K36" s="41"/>
       <c r="L36" s="87"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="87"/>
       <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
+      <c r="Q36" s="87"/>
       <c r="R36" s="41"/>
-      <c r="S36" s="87"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="87"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="83"/>
-      <c r="X36" s="44"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S36" s="83"/>
+      <c r="T36" s="44"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="42">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -20710,25 +20508,21 @@
       </c>
       <c r="F37" s="45"/>
       <c r="G37" s="48"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="88"/>
       <c r="K37" s="43"/>
       <c r="L37" s="88"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="88"/>
       <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
+      <c r="Q37" s="88"/>
       <c r="R37" s="43"/>
-      <c r="S37" s="88"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="88"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="84"/>
-      <c r="X37" s="45"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S37" s="84"/>
+      <c r="T37" s="45"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -20747,25 +20541,21 @@
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="47"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="87"/>
       <c r="K38" s="41"/>
       <c r="L38" s="87"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="87"/>
       <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
+      <c r="Q38" s="87"/>
       <c r="R38" s="41"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="87"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="83"/>
-      <c r="X38" s="44"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S38" s="83"/>
+      <c r="T38" s="44"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="42">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -20784,25 +20574,21 @@
       </c>
       <c r="F39" s="45"/>
       <c r="G39" s="48"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="88"/>
       <c r="K39" s="43"/>
       <c r="L39" s="88"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="88"/>
       <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
+      <c r="Q39" s="88"/>
       <c r="R39" s="43"/>
-      <c r="S39" s="88"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="88"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="84"/>
-      <c r="X39" s="45"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S39" s="84"/>
+      <c r="T39" s="45"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -20821,25 +20607,21 @@
       </c>
       <c r="F40" s="44"/>
       <c r="G40" s="47"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="87"/>
       <c r="K40" s="41"/>
       <c r="L40" s="87"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="87"/>
       <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
+      <c r="Q40" s="87"/>
       <c r="R40" s="41"/>
-      <c r="S40" s="87"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="87"/>
-      <c r="V40" s="41"/>
-      <c r="W40" s="83"/>
-      <c r="X40" s="44"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S40" s="83"/>
+      <c r="T40" s="44"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -20858,25 +20640,21 @@
       </c>
       <c r="F41" s="45"/>
       <c r="G41" s="48"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="88"/>
       <c r="K41" s="43"/>
       <c r="L41" s="88"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="88"/>
       <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
+      <c r="Q41" s="88"/>
       <c r="R41" s="43"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="88"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="84"/>
-      <c r="X41" s="45"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S41" s="84"/>
+      <c r="T41" s="45"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -20895,25 +20673,21 @@
       </c>
       <c r="F42" s="44"/>
       <c r="G42" s="47"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="87"/>
       <c r="K42" s="41"/>
       <c r="L42" s="87"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="87"/>
       <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
+      <c r="Q42" s="87"/>
       <c r="R42" s="41"/>
-      <c r="S42" s="87"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="87"/>
-      <c r="V42" s="41"/>
-      <c r="W42" s="83"/>
-      <c r="X42" s="44"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S42" s="83"/>
+      <c r="T42" s="44"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="42">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -20932,25 +20706,21 @@
       </c>
       <c r="F43" s="45"/>
       <c r="G43" s="48"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="88"/>
       <c r="K43" s="43"/>
       <c r="L43" s="88"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="88"/>
       <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
+      <c r="Q43" s="88"/>
       <c r="R43" s="43"/>
-      <c r="S43" s="88"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="88"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="84"/>
-      <c r="X43" s="45"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S43" s="84"/>
+      <c r="T43" s="45"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -20969,25 +20739,21 @@
       </c>
       <c r="F44" s="44"/>
       <c r="G44" s="47"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="87"/>
       <c r="K44" s="41"/>
       <c r="L44" s="87"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="87"/>
-      <c r="O44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="87"/>
       <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
+      <c r="Q44" s="87"/>
       <c r="R44" s="41"/>
-      <c r="S44" s="87"/>
-      <c r="T44" s="41"/>
-      <c r="U44" s="87"/>
-      <c r="V44" s="41"/>
-      <c r="W44" s="83"/>
-      <c r="X44" s="44"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S44" s="83"/>
+      <c r="T44" s="44"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="42">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -21006,25 +20772,21 @@
       </c>
       <c r="F45" s="45"/>
       <c r="G45" s="48"/>
-      <c r="H45" s="117"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="101"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="88"/>
       <c r="K45" s="43"/>
       <c r="L45" s="88"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="88"/>
       <c r="P45" s="43"/>
-      <c r="Q45" s="43"/>
+      <c r="Q45" s="88"/>
       <c r="R45" s="43"/>
-      <c r="S45" s="88"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="88"/>
-      <c r="V45" s="43"/>
-      <c r="W45" s="84"/>
-      <c r="X45" s="45"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S45" s="84"/>
+      <c r="T45" s="45"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -21043,25 +20805,21 @@
       </c>
       <c r="F46" s="44"/>
       <c r="G46" s="47"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="87"/>
       <c r="K46" s="41"/>
       <c r="L46" s="87"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="87"/>
-      <c r="O46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="87"/>
       <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
+      <c r="Q46" s="87"/>
       <c r="R46" s="41"/>
-      <c r="S46" s="87"/>
-      <c r="T46" s="41"/>
-      <c r="U46" s="87"/>
-      <c r="V46" s="41"/>
-      <c r="W46" s="83"/>
-      <c r="X46" s="44"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S46" s="83"/>
+      <c r="T46" s="44"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="42">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -21080,25 +20838,21 @@
       </c>
       <c r="F47" s="45"/>
       <c r="G47" s="48"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="88"/>
       <c r="K47" s="43"/>
       <c r="L47" s="88"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="88"/>
       <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
+      <c r="Q47" s="88"/>
       <c r="R47" s="43"/>
-      <c r="S47" s="88"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="88"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="84"/>
-      <c r="X47" s="45"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S47" s="84"/>
+      <c r="T47" s="45"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -21117,25 +20871,21 @@
       </c>
       <c r="F48" s="44"/>
       <c r="G48" s="47"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="87"/>
       <c r="K48" s="41"/>
       <c r="L48" s="87"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="87"/>
-      <c r="O48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="87"/>
       <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
+      <c r="Q48" s="87"/>
       <c r="R48" s="41"/>
-      <c r="S48" s="87"/>
-      <c r="T48" s="41"/>
-      <c r="U48" s="87"/>
-      <c r="V48" s="41"/>
-      <c r="W48" s="83"/>
-      <c r="X48" s="44"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S48" s="83"/>
+      <c r="T48" s="44"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="42">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -21154,25 +20904,21 @@
       </c>
       <c r="F49" s="45"/>
       <c r="G49" s="48"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="101"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="88"/>
       <c r="K49" s="43"/>
       <c r="L49" s="88"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="88"/>
       <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
+      <c r="Q49" s="88"/>
       <c r="R49" s="43"/>
-      <c r="S49" s="88"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="88"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="84"/>
-      <c r="X49" s="45"/>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S49" s="84"/>
+      <c r="T49" s="45"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -21191,25 +20937,21 @@
       </c>
       <c r="F50" s="44"/>
       <c r="G50" s="47"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="87"/>
       <c r="K50" s="41"/>
       <c r="L50" s="87"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="87"/>
-      <c r="O50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="87"/>
       <c r="P50" s="41"/>
-      <c r="Q50" s="41"/>
+      <c r="Q50" s="87"/>
       <c r="R50" s="41"/>
-      <c r="S50" s="87"/>
-      <c r="T50" s="41"/>
-      <c r="U50" s="87"/>
-      <c r="V50" s="41"/>
-      <c r="W50" s="83"/>
-      <c r="X50" s="44"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S50" s="83"/>
+      <c r="T50" s="44"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="42">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -21228,23 +20970,19 @@
       </c>
       <c r="F51" s="45"/>
       <c r="G51" s="48"/>
-      <c r="H51" s="117"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="101"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="88"/>
       <c r="K51" s="43"/>
       <c r="L51" s="88"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="88"/>
       <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
+      <c r="Q51" s="88"/>
       <c r="R51" s="43"/>
-      <c r="S51" s="88"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="88"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="84"/>
-      <c r="X51" s="45"/>
+      <c r="S51" s="84"/>
+      <c r="T51" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
